--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12512\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12512\IdeaProjects\junior\ElectiveSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,113 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
-  <si>
-    <t>S123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S124</t>
-  </si>
-  <si>
-    <t>S125</t>
-  </si>
-  <si>
-    <t>S126</t>
-  </si>
-  <si>
-    <t>S127</t>
-  </si>
-  <si>
-    <t>S128</t>
-  </si>
-  <si>
-    <t>S129</t>
-  </si>
-  <si>
-    <t>S130</t>
-  </si>
-  <si>
-    <t>S131</t>
-  </si>
-  <si>
-    <t>S132</t>
-  </si>
-  <si>
-    <t>S133</t>
-  </si>
-  <si>
-    <t>S134</t>
-  </si>
-  <si>
-    <t>S135</t>
-  </si>
-  <si>
-    <t>S136</t>
-  </si>
-  <si>
-    <t>S137</t>
-  </si>
-  <si>
-    <t>李一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李十一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李十二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李十三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李十四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李十五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>History</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +76,113 @@
   <si>
     <t>Elec. Eng.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuanq</t>
+  </si>
+  <si>
+    <t>Bocchi</t>
+  </si>
+  <si>
+    <t>Pelletier</t>
+  </si>
+  <si>
+    <t>Romeo</t>
+  </si>
+  <si>
+    <t>Tabor</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>Bhattacharya</t>
+  </si>
+  <si>
+    <t>Veerar</t>
+  </si>
+  <si>
+    <t>Preuss</t>
+  </si>
+  <si>
+    <t>Busch</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Lindner</t>
+  </si>
+  <si>
+    <t>Henriksen</t>
+  </si>
+  <si>
+    <t>Xiong</t>
+  </si>
+  <si>
+    <t>Sowerby</t>
+  </si>
+  <si>
+    <t>student_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrance_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100201</t>
+  </si>
+  <si>
+    <t>S100202</t>
+  </si>
+  <si>
+    <t>S100203</t>
+  </si>
+  <si>
+    <t>S100204</t>
+  </si>
+  <si>
+    <t>S100205</t>
+  </si>
+  <si>
+    <t>S100206</t>
+  </si>
+  <si>
+    <t>S100207</t>
+  </si>
+  <si>
+    <t>S100208</t>
+  </si>
+  <si>
+    <t>S100209</t>
+  </si>
+  <si>
+    <t>S100210</t>
+  </si>
+  <si>
+    <t>S100211</t>
+  </si>
+  <si>
+    <t>S100212</t>
+  </si>
+  <si>
+    <t>S100213</t>
+  </si>
+  <si>
+    <t>S100214</t>
   </si>
 </sst>
 </file>
@@ -227,9 +228,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,222 +515,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C6">
         <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>2018</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>2018</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C12">
         <v>2018</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C13">
         <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C14">
         <v>2018</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C15">
         <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
